--- a/R/data/dictionaries/core/2_0/2_0_non_rep.xlsx
+++ b/R/data/dictionaries/core/2_0/2_0_non_rep.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/Library/Containers/com.microsoft.Excel/Data/Downloads/trimester/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/core/2_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340AB81F-B15A-CF4A-89F4-098DD9B01940}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF00FB7-85A6-8446-B774-194C9F2B9BAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="828">
   <si>
     <t>name</t>
   </si>
@@ -2923,10 +2923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D318"/>
+  <dimension ref="A1:D317"/>
   <sheetViews>
-    <sheetView topLeftCell="A289" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C317" sqref="C317"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105:XFD105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -4392,77 +4392,77 @@
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>315</v>
@@ -4471,40 +4471,40 @@
         <v>324</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>315</v>
@@ -4513,40 +4513,40 @@
         <v>325</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>314</v>
@@ -4555,12 +4555,12 @@
         <v>317</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>314</v>
@@ -4569,12 +4569,12 @@
         <v>317</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>314</v>
@@ -4583,26 +4583,26 @@
         <v>317</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>317</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>315</v>
@@ -4611,40 +4611,40 @@
         <v>317</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>317</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>315</v>
@@ -4653,12 +4653,12 @@
         <v>327</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>315</v>
@@ -4667,12 +4667,12 @@
         <v>327</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>315</v>
@@ -4681,12 +4681,12 @@
         <v>327</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>315</v>
@@ -4695,40 +4695,40 @@
         <v>327</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>315</v>
@@ -4737,12 +4737,12 @@
         <v>329</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>315</v>
@@ -4751,12 +4751,12 @@
         <v>329</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>315</v>
@@ -4765,12 +4765,12 @@
         <v>329</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>315</v>
@@ -4779,12 +4779,12 @@
         <v>329</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>315</v>
@@ -4793,12 +4793,12 @@
         <v>329</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>315</v>
@@ -4807,12 +4807,12 @@
         <v>329</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>315</v>
@@ -4821,12 +4821,12 @@
         <v>329</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>315</v>
@@ -4835,12 +4835,12 @@
         <v>329</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>315</v>
@@ -4849,12 +4849,12 @@
         <v>329</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>315</v>
@@ -4863,12 +4863,12 @@
         <v>329</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>315</v>
@@ -4877,12 +4877,12 @@
         <v>329</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>315</v>
@@ -4891,12 +4891,12 @@
         <v>329</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>315</v>
@@ -4905,12 +4905,12 @@
         <v>329</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>315</v>
@@ -4919,12 +4919,12 @@
         <v>329</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>315</v>
@@ -4933,40 +4933,40 @@
         <v>329</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>315</v>
@@ -4975,26 +4975,26 @@
         <v>331</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>315</v>
@@ -5003,26 +5003,26 @@
         <v>332</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>315</v>
@@ -5031,12 +5031,12 @@
         <v>333</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>315</v>
@@ -5045,26 +5045,26 @@
         <v>333</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>315</v>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>315</v>
@@ -5087,12 +5087,12 @@
         <v>332</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>315</v>
@@ -5101,26 +5101,26 @@
         <v>332</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>315</v>
@@ -5129,40 +5129,40 @@
         <v>325</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>315</v>
@@ -5171,12 +5171,12 @@
         <v>334</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>315</v>
@@ -5185,12 +5185,12 @@
         <v>334</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>315</v>
@@ -5199,12 +5199,12 @@
         <v>334</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>315</v>
@@ -5213,12 +5213,12 @@
         <v>334</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>315</v>
@@ -5227,12 +5227,12 @@
         <v>334</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>315</v>
@@ -5241,12 +5241,12 @@
         <v>334</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>315</v>
@@ -5255,12 +5255,12 @@
         <v>334</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>315</v>
@@ -5269,12 +5269,12 @@
         <v>334</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>315</v>
@@ -5283,12 +5283,12 @@
         <v>334</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>315</v>
@@ -5297,12 +5297,12 @@
         <v>334</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>315</v>
@@ -5311,26 +5311,26 @@
         <v>334</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>315</v>
@@ -5339,26 +5339,26 @@
         <v>335</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>315</v>
@@ -5367,26 +5367,26 @@
         <v>336</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>314</v>
@@ -5395,26 +5395,26 @@
         <v>317</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>315</v>
@@ -5423,12 +5423,12 @@
         <v>337</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>315</v>
@@ -5437,26 +5437,26 @@
         <v>337</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>315</v>
@@ -5465,26 +5465,26 @@
         <v>338</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>314</v>
@@ -5493,40 +5493,40 @@
         <v>317</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>314</v>
@@ -5535,40 +5535,40 @@
         <v>317</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>315</v>
@@ -5577,40 +5577,40 @@
         <v>340</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>315</v>
@@ -5619,26 +5619,26 @@
         <v>332</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>315</v>
@@ -5647,12 +5647,12 @@
         <v>342</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>315</v>
@@ -5661,26 +5661,26 @@
         <v>342</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>315</v>
@@ -5689,12 +5689,12 @@
         <v>334</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>315</v>
@@ -5703,26 +5703,26 @@
         <v>334</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>315</v>
@@ -5731,12 +5731,12 @@
         <v>343</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>315</v>
@@ -5745,40 +5745,40 @@
         <v>343</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>315</v>
@@ -5787,12 +5787,12 @@
         <v>344</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>315</v>
@@ -5801,12 +5801,12 @@
         <v>344</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>315</v>
@@ -5815,12 +5815,12 @@
         <v>344</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>315</v>
@@ -5829,12 +5829,12 @@
         <v>344</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>315</v>
@@ -5843,12 +5843,12 @@
         <v>344</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>315</v>
@@ -5857,12 +5857,12 @@
         <v>344</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>315</v>
@@ -5871,12 +5871,12 @@
         <v>344</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>315</v>
@@ -5885,12 +5885,12 @@
         <v>344</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>315</v>
@@ -5899,12 +5899,12 @@
         <v>344</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>315</v>
@@ -5913,12 +5913,12 @@
         <v>344</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>315</v>
@@ -5927,12 +5927,12 @@
         <v>344</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>315</v>
@@ -5941,12 +5941,12 @@
         <v>344</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>315</v>
@@ -5955,12 +5955,12 @@
         <v>344</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>315</v>
@@ -5969,12 +5969,12 @@
         <v>344</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>315</v>
@@ -5983,12 +5983,12 @@
         <v>344</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>315</v>
@@ -5997,12 +5997,12 @@
         <v>344</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>315</v>
@@ -6011,54 +6011,54 @@
         <v>344</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>315</v>
@@ -6067,12 +6067,12 @@
         <v>344</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>315</v>
@@ -6081,12 +6081,12 @@
         <v>344</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>315</v>
@@ -6095,12 +6095,12 @@
         <v>344</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>315</v>
@@ -6109,12 +6109,12 @@
         <v>344</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>315</v>
@@ -6123,12 +6123,12 @@
         <v>344</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>315</v>
@@ -6137,12 +6137,12 @@
         <v>344</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>315</v>
@@ -6151,12 +6151,12 @@
         <v>344</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>315</v>
@@ -6165,12 +6165,12 @@
         <v>344</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>315</v>
@@ -6179,12 +6179,12 @@
         <v>344</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>315</v>
@@ -6193,12 +6193,12 @@
         <v>344</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>315</v>
@@ -6207,12 +6207,12 @@
         <v>344</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>315</v>
@@ -6221,12 +6221,12 @@
         <v>344</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>315</v>
@@ -6235,12 +6235,12 @@
         <v>344</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>315</v>
@@ -6249,12 +6249,12 @@
         <v>344</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>315</v>
@@ -6263,12 +6263,12 @@
         <v>344</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>315</v>
@@ -6277,12 +6277,12 @@
         <v>344</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>315</v>
@@ -6291,54 +6291,54 @@
         <v>344</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>315</v>
@@ -6347,12 +6347,12 @@
         <v>344</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>315</v>
@@ -6361,12 +6361,12 @@
         <v>344</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>315</v>
@@ -6375,12 +6375,12 @@
         <v>344</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>315</v>
@@ -6389,12 +6389,12 @@
         <v>344</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15" customHeight="1">
       <c r="A248" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>315</v>
@@ -6403,12 +6403,12 @@
         <v>344</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>315</v>
@@ -6417,12 +6417,12 @@
         <v>344</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>315</v>
@@ -6431,12 +6431,12 @@
         <v>344</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>315</v>
@@ -6445,12 +6445,12 @@
         <v>344</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>315</v>
@@ -6459,12 +6459,12 @@
         <v>344</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>315</v>
@@ -6473,12 +6473,12 @@
         <v>344</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="15" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>315</v>
@@ -6487,12 +6487,12 @@
         <v>344</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>315</v>
@@ -6501,12 +6501,12 @@
         <v>344</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>315</v>
@@ -6515,12 +6515,12 @@
         <v>344</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="15" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>315</v>
@@ -6529,12 +6529,12 @@
         <v>344</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>315</v>
@@ -6543,12 +6543,12 @@
         <v>344</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>315</v>
@@ -6557,12 +6557,12 @@
         <v>344</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>315</v>
@@ -6571,96 +6571,96 @@
         <v>344</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15" customHeight="1">
       <c r="A261" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="15" customHeight="1">
       <c r="A262" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="15" customHeight="1">
       <c r="A263" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="15" customHeight="1">
       <c r="A264" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="15" customHeight="1">
       <c r="A265" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15" customHeight="1">
       <c r="A266" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="15" customHeight="1">
       <c r="A267" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>315</v>
@@ -6669,12 +6669,12 @@
         <v>349</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15" customHeight="1">
       <c r="A268" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>315</v>
@@ -6683,116 +6683,116 @@
         <v>349</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="15" customHeight="1">
       <c r="A269" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="15" customHeight="1">
       <c r="A270" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="15" customHeight="1">
       <c r="A271" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="15" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="15" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="15" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="15" customHeight="1">
       <c r="A275" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="15" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>627</v>
@@ -6800,21 +6800,21 @@
     </row>
     <row r="277" spans="1:4" ht="15" customHeight="1">
       <c r="A277" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="15" customHeight="1">
       <c r="A278" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>315</v>
@@ -6823,12 +6823,12 @@
         <v>349</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="15" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>315</v>
@@ -6837,32 +6837,32 @@
         <v>349</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="15" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="15" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>631</v>
@@ -6870,27 +6870,27 @@
     </row>
     <row r="282" spans="1:4" ht="15" customHeight="1">
       <c r="A282" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="15" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>632</v>
@@ -6898,55 +6898,55 @@
     </row>
     <row r="284" spans="1:4" ht="15" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="15" customHeight="1">
       <c r="A285" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="15" customHeight="1">
       <c r="A286" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="15" customHeight="1">
       <c r="A287" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>635</v>
@@ -6954,21 +6954,21 @@
     </row>
     <row r="288" spans="1:4" ht="15" customHeight="1">
       <c r="A288" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="15" customHeight="1">
       <c r="A289" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>315</v>
@@ -6977,12 +6977,12 @@
         <v>349</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="15" customHeight="1">
       <c r="A290" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>315</v>
@@ -6991,32 +6991,32 @@
         <v>349</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="15" customHeight="1">
       <c r="A291" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="15" customHeight="1">
       <c r="A292" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>638</v>
@@ -7024,27 +7024,27 @@
     </row>
     <row r="293" spans="1:4" ht="15" customHeight="1">
       <c r="A293" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="15" customHeight="1">
       <c r="A294" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>639</v>
@@ -7052,35 +7052,35 @@
     </row>
     <row r="295" spans="1:4" ht="15" customHeight="1">
       <c r="A295" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="15" customHeight="1">
       <c r="A296" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="15" customHeight="1">
       <c r="A297" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>314</v>
@@ -7089,26 +7089,26 @@
         <v>317</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="15" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="15" customHeight="1">
       <c r="A299" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>315</v>
@@ -7117,12 +7117,12 @@
         <v>351</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="15" customHeight="1">
       <c r="A300" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>315</v>
@@ -7131,26 +7131,26 @@
         <v>351</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="15" customHeight="1">
       <c r="A301" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="15" customHeight="1">
       <c r="A302" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>315</v>
@@ -7159,26 +7159,26 @@
         <v>352</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="15" customHeight="1">
       <c r="A303" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="15" customHeight="1">
       <c r="A304" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>315</v>
@@ -7187,12 +7187,12 @@
         <v>351</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="15" customHeight="1">
       <c r="A305" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>315</v>
@@ -7201,12 +7201,12 @@
         <v>351</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="15" customHeight="1">
       <c r="A306" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>315</v>
@@ -7215,26 +7215,26 @@
         <v>351</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="15" customHeight="1">
       <c r="A307" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="15" customHeight="1">
       <c r="A308" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>315</v>
@@ -7243,40 +7243,40 @@
         <v>352</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="15" customHeight="1">
       <c r="A309" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="15" customHeight="1">
       <c r="A310" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="15" customHeight="1">
       <c r="A311" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>314</v>
@@ -7285,12 +7285,12 @@
         <v>317</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="15" customHeight="1">
       <c r="A312" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>314</v>
@@ -7299,90 +7299,76 @@
         <v>317</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="15" customHeight="1">
-      <c r="A313" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B313" s="2" t="s">
+      <c r="A313" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B313" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C313" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>651</v>
+      <c r="C313" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="15" customHeight="1">
       <c r="A314" s="4" t="s">
-        <v>104</v>
+        <v>825</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C314" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D314" s="3" t="s">
-        <v>457</v>
+      <c r="C314" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D314" s="5" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="15" customHeight="1">
       <c r="A315" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="B315" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="B315" s="4" t="s">
         <v>314</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D315" s="5" t="s">
-        <v>819</v>
+        <v>823</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="15" customHeight="1">
       <c r="A316" s="4" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B316" s="4" t="s">
         <v>314</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>823</v>
+        <v>317</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="15" customHeight="1">
       <c r="A317" s="4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B317" s="4" t="s">
         <v>314</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>317</v>
+        <v>822</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" ht="15" customHeight="1">
-      <c r="A318" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="B318" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C318" s="5" t="s">
-        <v>822</v>
-      </c>
-      <c r="D318" s="3" t="s">
         <v>821</v>
       </c>
     </row>
@@ -7398,7 +7384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D305"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C309" sqref="C309"/>
     </sheetView>

--- a/R/data/dictionaries/core/2_0/2_0_non_rep.xlsx
+++ b/R/data/dictionaries/core/2_0/2_0_non_rep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20354"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/core/2_0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\back\LifeCycle\git\analysis_protocols\R\data\dictionaries\core\2_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF00FB7-85A6-8446-B774-194C9F2B9BAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1377A7-04AD-4AA7-9786-380788052FEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -2511,7 +2511,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2603,7 +2603,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2925,20 +2925,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105:XFD105"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158:B158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="197.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="197.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>105</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>106</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>107</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>108</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>109</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1">
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>110</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>111</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>112</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>113</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>114</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>115</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>116</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>117</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>118</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>119</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>120</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>121</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>122</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1">
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>123</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>124</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>125</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>126</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>127</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>128</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>129</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>130</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>131</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>132</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>133</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>134</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>135</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>136</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1">
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>137</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1">
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>138</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1">
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>139</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1">
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>140</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1">
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>141</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1">
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>142</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1">
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>143</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1">
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>144</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1">
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>145</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1">
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>146</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1">
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>147</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1">
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1">
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>149</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>150</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1">
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>151</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1">
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>152</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1">
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>153</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>154</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1">
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>155</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1">
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>156</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1">
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>157</v>
       </c>
@@ -5132,12 +5132,12 @@
         <v>509</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1">
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>317</v>
@@ -5146,7 +5146,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1">
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>159</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1">
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>160</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1">
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>161</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1">
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>162</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>163</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>164</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1">
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>165</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1">
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>166</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1">
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>167</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1">
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>168</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1">
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>169</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1">
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>170</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1">
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>171</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1">
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>172</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1">
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>173</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1">
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>174</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1">
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>175</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1">
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>176</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1">
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>177</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1">
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>178</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1">
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>179</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1">
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>180</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1">
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>181</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1">
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>182</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1">
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>183</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1">
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>184</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1">
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>185</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1">
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>186</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1">
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>187</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1">
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>188</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1">
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>189</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1">
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>190</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1">
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>191</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1">
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>192</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1">
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>193</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1">
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>194</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1">
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>195</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1">
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>196</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1">
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>197</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1">
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>198</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1">
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>199</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1">
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>200</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1">
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>201</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1">
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>202</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1">
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>203</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1">
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>204</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1">
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>205</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1">
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>206</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1">
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>207</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1">
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>208</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1">
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>209</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1">
+    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>210</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1">
+    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>211</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1">
+    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>212</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1">
+    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>213</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1">
+    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>214</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1">
+    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>215</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1">
+    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>216</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1">
+    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>217</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1">
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>218</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1">
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>219</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1">
+    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>220</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1">
+    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>221</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1">
+    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>222</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1">
+    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>223</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1">
+    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>224</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1">
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>225</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1">
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>226</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1">
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>227</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1">
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>228</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1">
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>229</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1">
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>230</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1">
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>231</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1">
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>232</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1">
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>233</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1">
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>234</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1">
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>235</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1">
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>236</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1">
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>237</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1">
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>238</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1">
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>239</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1">
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>240</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1">
+    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>241</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1">
+    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>242</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1">
+    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>243</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1">
+    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>244</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1">
+    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>245</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1">
+    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>246</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1">
+    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>247</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1">
+    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>248</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1">
+    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>249</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1">
+    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>250</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1">
+    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>251</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1">
+    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>252</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1">
+    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>253</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1">
+    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>254</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1">
+    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>255</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1">
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>256</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1">
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>257</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1">
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>258</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1">
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>259</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1">
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>260</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1">
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>261</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1">
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>262</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1">
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>263</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1">
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>264</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1">
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>265</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1">
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>266</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1">
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>267</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1">
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>268</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1">
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>269</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1">
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>270</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1">
+    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>271</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1">
+    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>272</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1">
+    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>273</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1">
+    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>274</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1">
+    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>275</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1">
+    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>276</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1">
+    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>277</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1">
+    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>278</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1">
+    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>279</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1">
+    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>280</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1">
+    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>281</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1">
+    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>282</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1">
+    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>283</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1">
+    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>284</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1">
+    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>285</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1">
+    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>286</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1">
+    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>287</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1">
+    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>288</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1">
+    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>289</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1">
+    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>290</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1">
+    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>291</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1">
+    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>292</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1">
+    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>293</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1">
+    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>294</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1">
+    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>295</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1">
+    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>296</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1">
+    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>297</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1">
+    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>298</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1">
+    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>299</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1">
+    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>300</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1">
+    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>301</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15" customHeight="1">
+    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>302</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1">
+    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>303</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1">
+    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>304</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1">
+    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>305</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="15" customHeight="1">
+    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>306</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="15" customHeight="1">
+    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>307</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="15" customHeight="1">
+    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>308</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="15" customHeight="1">
+    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>309</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="15" customHeight="1">
+    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>310</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="15" customHeight="1">
+    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>311</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="15" customHeight="1">
+    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>312</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="15" customHeight="1">
+    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
         <v>104</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="15" customHeight="1">
+    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
         <v>825</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="15" customHeight="1">
+    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
         <v>824</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="15" customHeight="1">
+    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
         <v>826</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="15" customHeight="1">
+    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
         <v>827</v>
       </c>
@@ -7389,16 +7389,16 @@
       <selection pane="bottomLeft" activeCell="C309" sqref="C309"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>652</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>9</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>11</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>11</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>11</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>14</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>14</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>17</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>20</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>20</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>23</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>23</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>23</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>23</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>25</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>25</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>26</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>26</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>26</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>26</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>26</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>27</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>27</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>28</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>28</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>29</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>29</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>30</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>30</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>31</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>31</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>32</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>32</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>33</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>33</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>34</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>34</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>35</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>35</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>36</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>36</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>37</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>37</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>37</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>38</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>38</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>39</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>39</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>39</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>40</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>40</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>41</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>41</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>41</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>41</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>41</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>42</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>42</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>43</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>43</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>43</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>43</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>44</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>44</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>45</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>45</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>46</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1">
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>46</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>47</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>47</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>47</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>47</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>47</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>48</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>48</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>49</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>49</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>50</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>50</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>51</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1">
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>51</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>51</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>51</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>51</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>51</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>52</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>52</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>52</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>52</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>52</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>53</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>53</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>54</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>54</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1">
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>54</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1">
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>55</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1">
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>55</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1">
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>55</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1">
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>55</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1">
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>56</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1">
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>56</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1">
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>56</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1">
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>57</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1">
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>57</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1">
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>57</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1">
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>58</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1">
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>58</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>58</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1">
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>59</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1">
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>59</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1">
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>59</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>59</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1">
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>63</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1">
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>63</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1">
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>65</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1">
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>65</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1">
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>65</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1">
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>65</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1">
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>67</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1">
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>67</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>67</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>68</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1">
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>68</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1">
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>68</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1">
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>68</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1">
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>70</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1">
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>70</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1">
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>70</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1">
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>71</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1">
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>71</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1">
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>71</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1">
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>71</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1">
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>72</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1">
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>72</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1">
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>72</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1">
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>72</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1">
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>73</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1">
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>73</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1">
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>74</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1">
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>74</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1">
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>75</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1">
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>75</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1">
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>76</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1">
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>76</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1">
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>76</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1">
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>77</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1">
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>77</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1">
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>77</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1">
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>77</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1">
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>81</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1">
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>81</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1">
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>82</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1">
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>82</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1">
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>83</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1">
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>83</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1">
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>83</v>
       </c>
@@ -10170,7 +10170,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1">
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>91</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1">
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>91</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1">
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>91</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1">
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>93</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1">
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>93</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1">
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>94</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1">
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>94</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1">
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>95</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1">
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>95</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1">
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>96</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1">
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>96</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1">
+    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>96</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1">
+    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>96</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1">
+    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>96</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1">
+    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>97</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1">
+    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>97</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1">
+    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>101</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1">
+    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>101</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1">
+    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>115</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1">
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>115</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1">
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>115</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1">
+    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>115</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1">
+    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>115</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1">
+    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>116</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1">
+    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>116</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1">
+    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>116</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1">
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>116</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1">
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>116</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1">
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>117</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1">
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>117</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1">
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>117</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1">
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>117</v>
       </c>
@@ -10618,7 +10618,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1">
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>117</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1">
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>117</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1">
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>117</v>
       </c>
@@ -10660,7 +10660,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1">
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>117</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1">
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>117</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1">
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>117</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1">
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>118</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1">
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>118</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1">
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>118</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1">
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>118</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1">
+    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>118</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1">
+    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>118</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1">
+    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>118</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1">
+    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>118</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1">
+    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>118</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1">
+    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>118</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1">
+    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>121</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1">
+    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>121</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1">
+    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>121</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1">
+    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>121</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1">
+    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>121</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1">
+    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>121</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1">
+    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>121</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1">
+    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>121</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1">
+    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>121</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1">
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>121</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1">
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>121</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1">
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>121</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1">
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>121</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1">
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>121</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1">
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>121</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1">
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>121</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1">
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>175</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1">
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>175</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1">
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>176</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1">
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>176</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1">
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>183</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1">
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>183</v>
       </c>
@@ -11150,7 +11150,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1">
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>183</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1">
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>183</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1">
+    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>183</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1">
+    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>183</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1">
+    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>182</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1">
+    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>182</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1">
+    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>182</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1">
+    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>182</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1">
+    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>182</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1">
+    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>182</v>
       </c>
@@ -11290,7 +11290,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1">
+    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>185</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1">
+    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>185</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1">
+    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>185</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1">
+    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>186</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1">
+    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>186</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1">
+    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>186</v>
       </c>
@@ -11374,7 +11374,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1">
+    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>186</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1">
+    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>186</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1">
+    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>221</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1">
+    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>221</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1">
+    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>221</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1">
+    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>241</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1">
+    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>241</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1">
+    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>241</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1">
+    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>261</v>
       </c>
@@ -11500,7 +11500,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1">
+    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>261</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1">
+    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>261</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1">
+    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>310</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1">
+    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>310</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1">
+    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>311</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1">
+    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>311</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1">
+    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>312</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1">
+    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>312</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15" customHeight="1">
+    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>825</v>
       </c>
@@ -11626,7 +11626,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1">
+    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
         <v>825</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1">
+    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
         <v>826</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1">
+    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>826</v>
       </c>

--- a/R/data/dictionaries/core/2_0/2_0_non_rep.xlsx
+++ b/R/data/dictionaries/core/2_0/2_0_non_rep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\back\LifeCycle\git\analysis_protocols\R\data\dictionaries\core\2_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/core/2_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1377A7-04AD-4AA7-9786-380788052FEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6C3C00-C393-FE4D-BAFE-9D94A62E20D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="844">
   <si>
     <t>name</t>
   </si>
@@ -2505,13 +2505,61 @@
   </si>
   <si>
     <t>dogs_quant_preg</t>
+  </si>
+  <si>
+    <t>prepreg_dep</t>
+  </si>
+  <si>
+    <t>prepreg_anx</t>
+  </si>
+  <si>
+    <t>prepreg_ed</t>
+  </si>
+  <si>
+    <t>preg_ed</t>
+  </si>
+  <si>
+    <t>prepreg_an</t>
+  </si>
+  <si>
+    <t>preg_an</t>
+  </si>
+  <si>
+    <t>prepreg_bn</t>
+  </si>
+  <si>
+    <t>preg_bn</t>
+  </si>
+  <si>
+    <t>Maternal history of depressive disorders</t>
+  </si>
+  <si>
+    <t>Maternal history of anxiety disorders</t>
+  </si>
+  <si>
+    <t>Maternal history of any eating disorder</t>
+  </si>
+  <si>
+    <t>Maternal any eating disorder active during the index pregnancy</t>
+  </si>
+  <si>
+    <t>Maternal history of anorexia nervosa</t>
+  </si>
+  <si>
+    <t>Maternal anorexia nervosa active during the index pregnancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maternal history of bulimia nervosa </t>
+  </si>
+  <si>
+    <t>Maternal bulimia nervosa active during the index pregnancy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2547,6 +2595,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2562,12 +2617,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2576,13 +2646,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2603,7 +2680,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2923,22 +3000,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D317"/>
+  <dimension ref="A1:D325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158:B158"/>
+    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A318" sqref="A318:XFD325"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="197.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="197.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2952,7 +3029,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2966,7 +3043,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2978,7 +3055,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2990,7 +3067,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3004,7 +3081,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3018,7 +3095,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3032,7 +3109,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3046,7 +3123,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3060,7 +3137,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3074,7 +3151,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3088,7 +3165,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3102,7 +3179,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3116,7 +3193,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3130,7 +3207,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3144,7 +3221,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3158,7 +3235,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3172,7 +3249,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -3186,7 +3263,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -3200,7 +3277,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3214,7 +3291,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3228,7 +3305,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -3242,7 +3319,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3256,7 +3333,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3270,7 +3347,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -3284,7 +3361,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -3298,7 +3375,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -3312,7 +3389,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -3326,7 +3403,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -3340,7 +3417,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -3354,7 +3431,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3368,7 +3445,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3382,7 +3459,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -3396,7 +3473,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -3410,7 +3487,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -3424,7 +3501,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -3438,7 +3515,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -3452,7 +3529,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -3466,7 +3543,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -3480,7 +3557,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -3494,7 +3571,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -3508,7 +3585,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -3522,7 +3599,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -3536,7 +3613,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -3550,7 +3627,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -3564,7 +3641,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -3578,7 +3655,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -3592,7 +3669,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -3606,7 +3683,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -3620,7 +3697,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -3634,7 +3711,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -3648,7 +3725,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -3662,7 +3739,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -3676,7 +3753,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -3690,7 +3767,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -3704,7 +3781,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="15" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -3718,7 +3795,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -3732,7 +3809,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -3746,7 +3823,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -3760,7 +3837,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -3774,7 +3851,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -3788,7 +3865,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="15" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -3802,7 +3879,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -3816,7 +3893,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="15" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -3830,7 +3907,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="15" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -3844,7 +3921,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="15" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -3858,7 +3935,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="15" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -3872,7 +3949,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="15" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -3886,7 +3963,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="15" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -3900,7 +3977,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="15" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -3914,7 +3991,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="15" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -3928,7 +4005,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="15" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -3942,7 +4019,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="15" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -3956,7 +4033,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="15" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -3970,7 +4047,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="15" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -3984,7 +4061,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="15" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -3998,7 +4075,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="15" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -4012,7 +4089,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="15" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -4026,7 +4103,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="15" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -4040,7 +4117,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="15" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -4054,7 +4131,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="15" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -4068,7 +4145,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="15" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -4082,7 +4159,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="15" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -4096,7 +4173,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="15" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -4110,7 +4187,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="15" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -4124,7 +4201,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="15" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -4138,7 +4215,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="15" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -4152,7 +4229,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="15" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -4166,7 +4243,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="15" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -4180,7 +4257,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="15" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -4194,7 +4271,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="15" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -4208,7 +4285,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="15" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -4222,7 +4299,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="15" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -4236,7 +4313,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="15" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -4250,7 +4327,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="15" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -4264,7 +4341,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="15" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -4278,7 +4355,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="15" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -4292,7 +4369,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="15" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -4306,7 +4383,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="15" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -4320,7 +4397,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="15" customHeight="1">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -4334,7 +4411,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="15" customHeight="1">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -4348,7 +4425,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="15" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -4362,7 +4439,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="15" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -4376,7 +4453,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="15" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -4390,7 +4467,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="15" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>105</v>
       </c>
@@ -4404,7 +4481,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="15" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>106</v>
       </c>
@@ -4418,7 +4495,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="15" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>107</v>
       </c>
@@ -4432,7 +4509,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="15" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>108</v>
       </c>
@@ -4446,7 +4523,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="15" customHeight="1">
       <c r="A109" s="2" t="s">
         <v>109</v>
       </c>
@@ -4460,7 +4537,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="15" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>110</v>
       </c>
@@ -4474,7 +4551,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="15" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>111</v>
       </c>
@@ -4488,7 +4565,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="15" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>112</v>
       </c>
@@ -4502,7 +4579,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="15" customHeight="1">
       <c r="A113" s="2" t="s">
         <v>113</v>
       </c>
@@ -4516,7 +4593,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="15" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>114</v>
       </c>
@@ -4530,7 +4607,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="15" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>115</v>
       </c>
@@ -4544,7 +4621,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="15" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>116</v>
       </c>
@@ -4558,7 +4635,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="15" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>117</v>
       </c>
@@ -4572,7 +4649,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="15" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>118</v>
       </c>
@@ -4586,7 +4663,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="15" customHeight="1">
       <c r="A119" s="2" t="s">
         <v>119</v>
       </c>
@@ -4600,7 +4677,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="15" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>120</v>
       </c>
@@ -4614,7 +4691,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="15" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>121</v>
       </c>
@@ -4628,7 +4705,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="15" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>122</v>
       </c>
@@ -4642,7 +4719,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="15" customHeight="1">
       <c r="A123" s="2" t="s">
         <v>123</v>
       </c>
@@ -4656,7 +4733,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="15" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>124</v>
       </c>
@@ -4670,7 +4747,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="15" customHeight="1">
       <c r="A125" s="2" t="s">
         <v>125</v>
       </c>
@@ -4684,7 +4761,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="15" customHeight="1">
       <c r="A126" s="2" t="s">
         <v>126</v>
       </c>
@@ -4698,7 +4775,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="15" customHeight="1">
       <c r="A127" s="2" t="s">
         <v>127</v>
       </c>
@@ -4712,7 +4789,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="15" customHeight="1">
       <c r="A128" s="2" t="s">
         <v>128</v>
       </c>
@@ -4726,7 +4803,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="15" customHeight="1">
       <c r="A129" s="2" t="s">
         <v>129</v>
       </c>
@@ -4740,7 +4817,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="15" customHeight="1">
       <c r="A130" s="2" t="s">
         <v>130</v>
       </c>
@@ -4754,7 +4831,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="15" customHeight="1">
       <c r="A131" s="2" t="s">
         <v>131</v>
       </c>
@@ -4768,7 +4845,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="A132" s="2" t="s">
         <v>132</v>
       </c>
@@ -4782,7 +4859,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="15" customHeight="1">
       <c r="A133" s="2" t="s">
         <v>133</v>
       </c>
@@ -4796,7 +4873,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="15" customHeight="1">
       <c r="A134" s="2" t="s">
         <v>134</v>
       </c>
@@ -4810,7 +4887,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="15" customHeight="1">
       <c r="A135" s="2" t="s">
         <v>135</v>
       </c>
@@ -4824,7 +4901,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="15" customHeight="1">
       <c r="A136" s="2" t="s">
         <v>136</v>
       </c>
@@ -4838,7 +4915,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="15" customHeight="1">
       <c r="A137" s="2" t="s">
         <v>137</v>
       </c>
@@ -4852,7 +4929,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="15" customHeight="1">
       <c r="A138" s="2" t="s">
         <v>138</v>
       </c>
@@ -4866,7 +4943,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="15" customHeight="1">
       <c r="A139" s="2" t="s">
         <v>139</v>
       </c>
@@ -4880,7 +4957,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="15" customHeight="1">
       <c r="A140" s="2" t="s">
         <v>140</v>
       </c>
@@ -4894,7 +4971,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="15" customHeight="1">
       <c r="A141" s="2" t="s">
         <v>141</v>
       </c>
@@ -4908,7 +4985,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="15" customHeight="1">
       <c r="A142" s="2" t="s">
         <v>142</v>
       </c>
@@ -4922,7 +4999,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="15" customHeight="1">
       <c r="A143" s="2" t="s">
         <v>143</v>
       </c>
@@ -4936,7 +5013,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="15" customHeight="1">
       <c r="A144" s="2" t="s">
         <v>144</v>
       </c>
@@ -4950,7 +5027,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="15" customHeight="1">
       <c r="A145" s="2" t="s">
         <v>145</v>
       </c>
@@ -4964,7 +5041,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="15" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>146</v>
       </c>
@@ -4978,7 +5055,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="15" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>147</v>
       </c>
@@ -4992,7 +5069,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="15" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -5006,7 +5083,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="15" customHeight="1">
       <c r="A149" s="2" t="s">
         <v>149</v>
       </c>
@@ -5020,7 +5097,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="15" customHeight="1">
       <c r="A150" s="2" t="s">
         <v>150</v>
       </c>
@@ -5034,7 +5111,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="15" customHeight="1">
       <c r="A151" s="2" t="s">
         <v>151</v>
       </c>
@@ -5048,7 +5125,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="15" customHeight="1">
       <c r="A152" s="2" t="s">
         <v>152</v>
       </c>
@@ -5062,7 +5139,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="15" customHeight="1">
       <c r="A153" s="2" t="s">
         <v>153</v>
       </c>
@@ -5076,7 +5153,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="15" customHeight="1">
       <c r="A154" s="2" t="s">
         <v>154</v>
       </c>
@@ -5090,7 +5167,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="15" customHeight="1">
       <c r="A155" s="2" t="s">
         <v>155</v>
       </c>
@@ -5104,7 +5181,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="15" customHeight="1">
       <c r="A156" s="2" t="s">
         <v>156</v>
       </c>
@@ -5118,7 +5195,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="15" customHeight="1">
       <c r="A157" s="2" t="s">
         <v>157</v>
       </c>
@@ -5132,7 +5209,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="15" customHeight="1">
       <c r="A158" s="2" t="s">
         <v>158</v>
       </c>
@@ -5146,7 +5223,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="15" customHeight="1">
       <c r="A159" s="2" t="s">
         <v>159</v>
       </c>
@@ -5160,7 +5237,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="15" customHeight="1">
       <c r="A160" s="2" t="s">
         <v>160</v>
       </c>
@@ -5174,7 +5251,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="15" customHeight="1">
       <c r="A161" s="2" t="s">
         <v>161</v>
       </c>
@@ -5188,7 +5265,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="15" customHeight="1">
       <c r="A162" s="2" t="s">
         <v>162</v>
       </c>
@@ -5202,7 +5279,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="15" customHeight="1">
       <c r="A163" s="2" t="s">
         <v>163</v>
       </c>
@@ -5216,7 +5293,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="15" customHeight="1">
       <c r="A164" s="2" t="s">
         <v>164</v>
       </c>
@@ -5230,7 +5307,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="15" customHeight="1">
       <c r="A165" s="2" t="s">
         <v>165</v>
       </c>
@@ -5244,7 +5321,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="15" customHeight="1">
       <c r="A166" s="2" t="s">
         <v>166</v>
       </c>
@@ -5258,7 +5335,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="15" customHeight="1">
       <c r="A167" s="2" t="s">
         <v>167</v>
       </c>
@@ -5272,7 +5349,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="15" customHeight="1">
       <c r="A168" s="2" t="s">
         <v>168</v>
       </c>
@@ -5286,7 +5363,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="15" customHeight="1">
       <c r="A169" s="2" t="s">
         <v>169</v>
       </c>
@@ -5300,7 +5377,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="15" customHeight="1">
       <c r="A170" s="2" t="s">
         <v>170</v>
       </c>
@@ -5314,7 +5391,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="15" customHeight="1">
       <c r="A171" s="2" t="s">
         <v>171</v>
       </c>
@@ -5328,7 +5405,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="15" customHeight="1">
       <c r="A172" s="2" t="s">
         <v>172</v>
       </c>
@@ -5342,7 +5419,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="15" customHeight="1">
       <c r="A173" s="2" t="s">
         <v>173</v>
       </c>
@@ -5356,7 +5433,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="15" customHeight="1">
       <c r="A174" s="2" t="s">
         <v>174</v>
       </c>
@@ -5370,7 +5447,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="15" customHeight="1">
       <c r="A175" s="2" t="s">
         <v>175</v>
       </c>
@@ -5384,7 +5461,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="15" customHeight="1">
       <c r="A176" s="2" t="s">
         <v>176</v>
       </c>
@@ -5398,7 +5475,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="15" customHeight="1">
       <c r="A177" s="2" t="s">
         <v>177</v>
       </c>
@@ -5412,7 +5489,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="15" customHeight="1">
       <c r="A178" s="2" t="s">
         <v>178</v>
       </c>
@@ -5426,7 +5503,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="15" customHeight="1">
       <c r="A179" s="2" t="s">
         <v>179</v>
       </c>
@@ -5440,7 +5517,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="15" customHeight="1">
       <c r="A180" s="2" t="s">
         <v>180</v>
       </c>
@@ -5454,7 +5531,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="15" customHeight="1">
       <c r="A181" s="2" t="s">
         <v>181</v>
       </c>
@@ -5468,7 +5545,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="15" customHeight="1">
       <c r="A182" s="2" t="s">
         <v>182</v>
       </c>
@@ -5482,7 +5559,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="15" customHeight="1">
       <c r="A183" s="2" t="s">
         <v>183</v>
       </c>
@@ -5496,7 +5573,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="15" customHeight="1">
       <c r="A184" s="2" t="s">
         <v>184</v>
       </c>
@@ -5510,7 +5587,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="15" customHeight="1">
       <c r="A185" s="2" t="s">
         <v>185</v>
       </c>
@@ -5524,7 +5601,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="15" customHeight="1">
       <c r="A186" s="2" t="s">
         <v>186</v>
       </c>
@@ -5538,7 +5615,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="15" customHeight="1">
       <c r="A187" s="2" t="s">
         <v>187</v>
       </c>
@@ -5552,7 +5629,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="15" customHeight="1">
       <c r="A188" s="2" t="s">
         <v>188</v>
       </c>
@@ -5566,7 +5643,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="15" customHeight="1">
       <c r="A189" s="2" t="s">
         <v>189</v>
       </c>
@@ -5580,7 +5657,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="15" customHeight="1">
       <c r="A190" s="2" t="s">
         <v>190</v>
       </c>
@@ -5594,7 +5671,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="15" customHeight="1">
       <c r="A191" s="2" t="s">
         <v>191</v>
       </c>
@@ -5608,7 +5685,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="15" customHeight="1">
       <c r="A192" s="2" t="s">
         <v>192</v>
       </c>
@@ -5622,7 +5699,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="15" customHeight="1">
       <c r="A193" s="2" t="s">
         <v>193</v>
       </c>
@@ -5636,7 +5713,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="15" customHeight="1">
       <c r="A194" s="2" t="s">
         <v>194</v>
       </c>
@@ -5650,7 +5727,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="15" customHeight="1">
       <c r="A195" s="2" t="s">
         <v>195</v>
       </c>
@@ -5664,7 +5741,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="15" customHeight="1">
       <c r="A196" s="2" t="s">
         <v>196</v>
       </c>
@@ -5678,7 +5755,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="15" customHeight="1">
       <c r="A197" s="2" t="s">
         <v>197</v>
       </c>
@@ -5692,7 +5769,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="15" customHeight="1">
       <c r="A198" s="2" t="s">
         <v>198</v>
       </c>
@@ -5706,7 +5783,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="15" customHeight="1">
       <c r="A199" s="2" t="s">
         <v>199</v>
       </c>
@@ -5720,7 +5797,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="15" customHeight="1">
       <c r="A200" s="2" t="s">
         <v>200</v>
       </c>
@@ -5734,7 +5811,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="15" customHeight="1">
       <c r="A201" s="2" t="s">
         <v>201</v>
       </c>
@@ -5748,7 +5825,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="15" customHeight="1">
       <c r="A202" s="2" t="s">
         <v>202</v>
       </c>
@@ -5762,7 +5839,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="15" customHeight="1">
       <c r="A203" s="2" t="s">
         <v>203</v>
       </c>
@@ -5776,7 +5853,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="15" customHeight="1">
       <c r="A204" s="2" t="s">
         <v>204</v>
       </c>
@@ -5790,7 +5867,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="15" customHeight="1">
       <c r="A205" s="2" t="s">
         <v>205</v>
       </c>
@@ -5804,7 +5881,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="15" customHeight="1">
       <c r="A206" s="2" t="s">
         <v>206</v>
       </c>
@@ -5818,7 +5895,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="15" customHeight="1">
       <c r="A207" s="2" t="s">
         <v>207</v>
       </c>
@@ -5832,7 +5909,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="15" customHeight="1">
       <c r="A208" s="2" t="s">
         <v>208</v>
       </c>
@@ -5846,7 +5923,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="15" customHeight="1">
       <c r="A209" s="2" t="s">
         <v>209</v>
       </c>
@@ -5860,7 +5937,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="15" customHeight="1">
       <c r="A210" s="2" t="s">
         <v>210</v>
       </c>
@@ -5874,7 +5951,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="15" customHeight="1">
       <c r="A211" s="2" t="s">
         <v>211</v>
       </c>
@@ -5888,7 +5965,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="15" customHeight="1">
       <c r="A212" s="2" t="s">
         <v>212</v>
       </c>
@@ -5902,7 +5979,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="15" customHeight="1">
       <c r="A213" s="2" t="s">
         <v>213</v>
       </c>
@@ -5916,7 +5993,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="15" customHeight="1">
       <c r="A214" s="2" t="s">
         <v>214</v>
       </c>
@@ -5930,7 +6007,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="15" customHeight="1">
       <c r="A215" s="2" t="s">
         <v>215</v>
       </c>
@@ -5944,7 +6021,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="15" customHeight="1">
       <c r="A216" s="2" t="s">
         <v>216</v>
       </c>
@@ -5958,7 +6035,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="15" customHeight="1">
       <c r="A217" s="2" t="s">
         <v>217</v>
       </c>
@@ -5972,7 +6049,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="15" customHeight="1">
       <c r="A218" s="2" t="s">
         <v>218</v>
       </c>
@@ -5986,7 +6063,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="15" customHeight="1">
       <c r="A219" s="2" t="s">
         <v>219</v>
       </c>
@@ -6000,7 +6077,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="15" customHeight="1">
       <c r="A220" s="2" t="s">
         <v>220</v>
       </c>
@@ -6014,7 +6091,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="15" customHeight="1">
       <c r="A221" s="2" t="s">
         <v>221</v>
       </c>
@@ -6028,7 +6105,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="15" customHeight="1">
       <c r="A222" s="2" t="s">
         <v>222</v>
       </c>
@@ -6042,7 +6119,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="15" customHeight="1">
       <c r="A223" s="2" t="s">
         <v>223</v>
       </c>
@@ -6056,7 +6133,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="15" customHeight="1">
       <c r="A224" s="2" t="s">
         <v>224</v>
       </c>
@@ -6070,7 +6147,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="15" customHeight="1">
       <c r="A225" s="2" t="s">
         <v>225</v>
       </c>
@@ -6084,7 +6161,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="15" customHeight="1">
       <c r="A226" s="2" t="s">
         <v>226</v>
       </c>
@@ -6098,7 +6175,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="15" customHeight="1">
       <c r="A227" s="2" t="s">
         <v>227</v>
       </c>
@@ -6112,7 +6189,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="15" customHeight="1">
       <c r="A228" s="2" t="s">
         <v>228</v>
       </c>
@@ -6126,7 +6203,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" ht="15" customHeight="1">
       <c r="A229" s="2" t="s">
         <v>229</v>
       </c>
@@ -6140,7 +6217,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="15" customHeight="1">
       <c r="A230" s="2" t="s">
         <v>230</v>
       </c>
@@ -6154,7 +6231,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="15" customHeight="1">
       <c r="A231" s="2" t="s">
         <v>231</v>
       </c>
@@ -6168,7 +6245,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="15" customHeight="1">
       <c r="A232" s="2" t="s">
         <v>232</v>
       </c>
@@ -6182,7 +6259,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="15" customHeight="1">
       <c r="A233" s="2" t="s">
         <v>233</v>
       </c>
@@ -6196,7 +6273,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" ht="15" customHeight="1">
       <c r="A234" s="2" t="s">
         <v>234</v>
       </c>
@@ -6210,7 +6287,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="15" customHeight="1">
       <c r="A235" s="2" t="s">
         <v>235</v>
       </c>
@@ -6224,7 +6301,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="15" customHeight="1">
       <c r="A236" s="2" t="s">
         <v>236</v>
       </c>
@@ -6238,7 +6315,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="15" customHeight="1">
       <c r="A237" s="2" t="s">
         <v>237</v>
       </c>
@@ -6252,7 +6329,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="15" customHeight="1">
       <c r="A238" s="2" t="s">
         <v>238</v>
       </c>
@@ -6266,7 +6343,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="15" customHeight="1">
       <c r="A239" s="2" t="s">
         <v>239</v>
       </c>
@@ -6280,7 +6357,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="15" customHeight="1">
       <c r="A240" s="2" t="s">
         <v>240</v>
       </c>
@@ -6294,7 +6371,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="15" customHeight="1">
       <c r="A241" s="2" t="s">
         <v>241</v>
       </c>
@@ -6308,7 +6385,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" ht="15" customHeight="1">
       <c r="A242" s="2" t="s">
         <v>242</v>
       </c>
@@ -6322,7 +6399,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="15" customHeight="1">
       <c r="A243" s="2" t="s">
         <v>243</v>
       </c>
@@ -6336,7 +6413,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="15" customHeight="1">
       <c r="A244" s="2" t="s">
         <v>244</v>
       </c>
@@ -6350,7 +6427,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="15" customHeight="1">
       <c r="A245" s="2" t="s">
         <v>245</v>
       </c>
@@ -6364,7 +6441,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="15" customHeight="1">
       <c r="A246" s="2" t="s">
         <v>246</v>
       </c>
@@ -6378,7 +6455,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="15" customHeight="1">
       <c r="A247" s="2" t="s">
         <v>247</v>
       </c>
@@ -6392,7 +6469,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="15" customHeight="1">
       <c r="A248" s="2" t="s">
         <v>248</v>
       </c>
@@ -6406,7 +6483,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="15" customHeight="1">
       <c r="A249" s="2" t="s">
         <v>249</v>
       </c>
@@ -6420,7 +6497,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="15" customHeight="1">
       <c r="A250" s="2" t="s">
         <v>250</v>
       </c>
@@ -6434,7 +6511,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" ht="15" customHeight="1">
       <c r="A251" s="2" t="s">
         <v>251</v>
       </c>
@@ -6448,7 +6525,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="15" customHeight="1">
       <c r="A252" s="2" t="s">
         <v>252</v>
       </c>
@@ -6462,7 +6539,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" ht="15" customHeight="1">
       <c r="A253" s="2" t="s">
         <v>253</v>
       </c>
@@ -6476,7 +6553,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" ht="15" customHeight="1">
       <c r="A254" s="2" t="s">
         <v>254</v>
       </c>
@@ -6490,7 +6567,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" ht="15" customHeight="1">
       <c r="A255" s="2" t="s">
         <v>255</v>
       </c>
@@ -6504,7 +6581,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="15" customHeight="1">
       <c r="A256" s="2" t="s">
         <v>256</v>
       </c>
@@ -6518,7 +6595,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="15" customHeight="1">
       <c r="A257" s="2" t="s">
         <v>257</v>
       </c>
@@ -6532,7 +6609,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="15" customHeight="1">
       <c r="A258" s="2" t="s">
         <v>258</v>
       </c>
@@ -6546,7 +6623,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="15" customHeight="1">
       <c r="A259" s="2" t="s">
         <v>259</v>
       </c>
@@ -6560,7 +6637,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="15" customHeight="1">
       <c r="A260" s="2" t="s">
         <v>260</v>
       </c>
@@ -6574,7 +6651,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="15" customHeight="1">
       <c r="A261" s="2" t="s">
         <v>261</v>
       </c>
@@ -6588,7 +6665,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" ht="15" customHeight="1">
       <c r="A262" s="2" t="s">
         <v>262</v>
       </c>
@@ -6602,7 +6679,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" ht="15" customHeight="1">
       <c r="A263" s="2" t="s">
         <v>263</v>
       </c>
@@ -6616,7 +6693,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="15" customHeight="1">
       <c r="A264" s="2" t="s">
         <v>264</v>
       </c>
@@ -6630,7 +6707,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="15" customHeight="1">
       <c r="A265" s="2" t="s">
         <v>265</v>
       </c>
@@ -6644,7 +6721,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" ht="15" customHeight="1">
       <c r="A266" s="2" t="s">
         <v>266</v>
       </c>
@@ -6658,7 +6735,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="15" customHeight="1">
       <c r="A267" s="2" t="s">
         <v>267</v>
       </c>
@@ -6672,7 +6749,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" ht="15" customHeight="1">
       <c r="A268" s="2" t="s">
         <v>268</v>
       </c>
@@ -6686,7 +6763,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="15" customHeight="1">
       <c r="A269" s="2" t="s">
         <v>269</v>
       </c>
@@ -6700,7 +6777,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="15" customHeight="1">
       <c r="A270" s="2" t="s">
         <v>270</v>
       </c>
@@ -6714,7 +6791,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="15" customHeight="1">
       <c r="A271" s="2" t="s">
         <v>271</v>
       </c>
@@ -6728,7 +6805,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="15" customHeight="1">
       <c r="A272" s="2" t="s">
         <v>272</v>
       </c>
@@ -6742,7 +6819,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" ht="15" customHeight="1">
       <c r="A273" s="2" t="s">
         <v>273</v>
       </c>
@@ -6756,7 +6833,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="15" customHeight="1">
       <c r="A274" s="2" t="s">
         <v>274</v>
       </c>
@@ -6770,7 +6847,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="15" customHeight="1">
       <c r="A275" s="2" t="s">
         <v>275</v>
       </c>
@@ -6784,7 +6861,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="15" customHeight="1">
       <c r="A276" s="2" t="s">
         <v>276</v>
       </c>
@@ -6798,7 +6875,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" ht="15" customHeight="1">
       <c r="A277" s="2" t="s">
         <v>277</v>
       </c>
@@ -6812,7 +6889,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="15" customHeight="1">
       <c r="A278" s="2" t="s">
         <v>278</v>
       </c>
@@ -6826,7 +6903,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="15" customHeight="1">
       <c r="A279" s="2" t="s">
         <v>279</v>
       </c>
@@ -6840,7 +6917,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="15" customHeight="1">
       <c r="A280" s="2" t="s">
         <v>280</v>
       </c>
@@ -6854,7 +6931,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" ht="15" customHeight="1">
       <c r="A281" s="2" t="s">
         <v>281</v>
       </c>
@@ -6868,7 +6945,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="15" customHeight="1">
       <c r="A282" s="2" t="s">
         <v>282</v>
       </c>
@@ -6882,7 +6959,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="15" customHeight="1">
       <c r="A283" s="2" t="s">
         <v>283</v>
       </c>
@@ -6896,7 +6973,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" ht="15" customHeight="1">
       <c r="A284" s="2" t="s">
         <v>284</v>
       </c>
@@ -6910,7 +6987,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="15" customHeight="1">
       <c r="A285" s="2" t="s">
         <v>285</v>
       </c>
@@ -6924,7 +7001,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="15" customHeight="1">
       <c r="A286" s="2" t="s">
         <v>286</v>
       </c>
@@ -6938,7 +7015,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" ht="15" customHeight="1">
       <c r="A287" s="2" t="s">
         <v>287</v>
       </c>
@@ -6952,7 +7029,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="15" customHeight="1">
       <c r="A288" s="2" t="s">
         <v>288</v>
       </c>
@@ -6966,7 +7043,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" ht="15" customHeight="1">
       <c r="A289" s="2" t="s">
         <v>289</v>
       </c>
@@ -6980,7 +7057,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="15" customHeight="1">
       <c r="A290" s="2" t="s">
         <v>290</v>
       </c>
@@ -6994,7 +7071,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="15" customHeight="1">
       <c r="A291" s="2" t="s">
         <v>291</v>
       </c>
@@ -7008,7 +7085,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="15" customHeight="1">
       <c r="A292" s="2" t="s">
         <v>292</v>
       </c>
@@ -7022,7 +7099,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="15" customHeight="1">
       <c r="A293" s="2" t="s">
         <v>293</v>
       </c>
@@ -7036,7 +7113,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="15" customHeight="1">
       <c r="A294" s="2" t="s">
         <v>294</v>
       </c>
@@ -7050,7 +7127,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="15" customHeight="1">
       <c r="A295" s="2" t="s">
         <v>295</v>
       </c>
@@ -7064,7 +7141,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="15" customHeight="1">
       <c r="A296" s="2" t="s">
         <v>296</v>
       </c>
@@ -7078,7 +7155,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="15" customHeight="1">
       <c r="A297" s="2" t="s">
         <v>297</v>
       </c>
@@ -7092,7 +7169,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="15" customHeight="1">
       <c r="A298" s="2" t="s">
         <v>298</v>
       </c>
@@ -7106,7 +7183,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="15" customHeight="1">
       <c r="A299" s="2" t="s">
         <v>299</v>
       </c>
@@ -7120,7 +7197,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" ht="15" customHeight="1">
       <c r="A300" s="2" t="s">
         <v>300</v>
       </c>
@@ -7134,7 +7211,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" ht="15" customHeight="1">
       <c r="A301" s="2" t="s">
         <v>301</v>
       </c>
@@ -7148,7 +7225,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="15" customHeight="1">
       <c r="A302" s="2" t="s">
         <v>302</v>
       </c>
@@ -7162,7 +7239,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" ht="15" customHeight="1">
       <c r="A303" s="2" t="s">
         <v>303</v>
       </c>
@@ -7176,7 +7253,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" ht="15" customHeight="1">
       <c r="A304" s="2" t="s">
         <v>304</v>
       </c>
@@ -7190,7 +7267,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="15" customHeight="1">
       <c r="A305" s="2" t="s">
         <v>305</v>
       </c>
@@ -7204,7 +7281,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="15" customHeight="1">
       <c r="A306" s="2" t="s">
         <v>306</v>
       </c>
@@ -7218,7 +7295,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" ht="15" customHeight="1">
       <c r="A307" s="2" t="s">
         <v>307</v>
       </c>
@@ -7232,7 +7309,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" ht="15" customHeight="1">
       <c r="A308" s="2" t="s">
         <v>308</v>
       </c>
@@ -7246,7 +7323,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" ht="15" customHeight="1">
       <c r="A309" s="2" t="s">
         <v>309</v>
       </c>
@@ -7260,7 +7337,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="15" customHeight="1">
       <c r="A310" s="2" t="s">
         <v>310</v>
       </c>
@@ -7274,7 +7351,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="15" customHeight="1">
       <c r="A311" s="2" t="s">
         <v>311</v>
       </c>
@@ -7288,7 +7365,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="15" customHeight="1">
       <c r="A312" s="2" t="s">
         <v>312</v>
       </c>
@@ -7302,7 +7379,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" ht="15" customHeight="1">
       <c r="A313" s="4" t="s">
         <v>104</v>
       </c>
@@ -7316,7 +7393,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" ht="15" customHeight="1">
       <c r="A314" s="4" t="s">
         <v>825</v>
       </c>
@@ -7330,7 +7407,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" ht="15" customHeight="1">
       <c r="A315" s="4" t="s">
         <v>824</v>
       </c>
@@ -7344,7 +7421,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" ht="15" customHeight="1">
       <c r="A316" s="4" t="s">
         <v>826</v>
       </c>
@@ -7358,7 +7435,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" ht="15" customHeight="1">
       <c r="A317" s="4" t="s">
         <v>827</v>
       </c>
@@ -7370,6 +7447,118 @@
       </c>
       <c r="D317" s="3" t="s">
         <v>821</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A318" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D318" s="8" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A319" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D319" s="8" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A320" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D320" s="7" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A321" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D321" s="7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A322" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D322" s="7" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A323" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D323" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A324" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D324" s="7" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A325" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D325" s="7" t="s">
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -7382,23 +7571,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D305"/>
+  <dimension ref="A1:D321"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C309" sqref="C309"/>
+      <selection pane="bottomLeft" activeCell="A306" sqref="A306:D321"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>652</v>
       </c>
@@ -7412,7 +7601,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -7426,7 +7615,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -7440,7 +7629,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -7454,7 +7643,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -7468,7 +7657,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -7482,7 +7671,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -7496,7 +7685,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -7510,7 +7699,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -7524,7 +7713,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -7538,7 +7727,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -7552,7 +7741,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -7566,7 +7755,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -7580,7 +7769,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -7594,7 +7783,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -7608,7 +7797,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -7622,7 +7811,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -7636,7 +7825,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -7650,7 +7839,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -7664,7 +7853,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -7678,7 +7867,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -7692,7 +7881,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -7706,7 +7895,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -7720,7 +7909,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -7734,7 +7923,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -7748,7 +7937,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
@@ -7762,7 +7951,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
@@ -7776,7 +7965,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
@@ -7790,7 +7979,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -7804,7 +7993,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
@@ -7818,7 +8007,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
@@ -7832,7 +8021,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
@@ -7846,7 +8035,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
@@ -7860,7 +8049,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
@@ -7874,7 +8063,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -7888,7 +8077,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -7902,7 +8091,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -7916,7 +8105,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
@@ -7930,7 +8119,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>9</v>
       </c>
@@ -7944,7 +8133,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
@@ -7958,7 +8147,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
@@ -7972,7 +8161,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
@@ -7986,7 +8175,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
@@ -8000,7 +8189,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>11</v>
       </c>
@@ -8014,7 +8203,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>11</v>
       </c>
@@ -8028,7 +8217,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>11</v>
       </c>
@@ -8042,7 +8231,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>14</v>
       </c>
@@ -8056,7 +8245,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>14</v>
       </c>
@@ -8070,7 +8259,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>17</v>
       </c>
@@ -8084,7 +8273,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
@@ -8098,7 +8287,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>20</v>
       </c>
@@ -8112,7 +8301,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>20</v>
       </c>
@@ -8126,7 +8315,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>23</v>
       </c>
@@ -8140,7 +8329,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>23</v>
       </c>
@@ -8154,7 +8343,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>23</v>
       </c>
@@ -8168,7 +8357,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="15" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>23</v>
       </c>
@@ -8182,7 +8371,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>25</v>
       </c>
@@ -8196,7 +8385,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>25</v>
       </c>
@@ -8210,7 +8399,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>26</v>
       </c>
@@ -8224,7 +8413,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>26</v>
       </c>
@@ -8238,7 +8427,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>26</v>
       </c>
@@ -8252,7 +8441,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="15" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>26</v>
       </c>
@@ -8266,7 +8455,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>26</v>
       </c>
@@ -8280,7 +8469,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="15" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>27</v>
       </c>
@@ -8294,7 +8483,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="15" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>27</v>
       </c>
@@ -8308,7 +8497,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="15" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>28</v>
       </c>
@@ -8322,7 +8511,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="15" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>28</v>
       </c>
@@ -8336,7 +8525,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="15" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>29</v>
       </c>
@@ -8350,7 +8539,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="15" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>29</v>
       </c>
@@ -8364,7 +8553,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="15" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>30</v>
       </c>
@@ -8378,7 +8567,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="15" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>30</v>
       </c>
@@ -8392,7 +8581,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="15" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>31</v>
       </c>
@@ -8406,7 +8595,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="15" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>31</v>
       </c>
@@ -8420,7 +8609,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="15" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>32</v>
       </c>
@@ -8434,7 +8623,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="15" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>32</v>
       </c>
@@ -8448,7 +8637,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="15" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>33</v>
       </c>
@@ -8462,7 +8651,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="15" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>33</v>
       </c>
@@ -8476,7 +8665,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="15" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>34</v>
       </c>
@@ -8490,7 +8679,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="15" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>34</v>
       </c>
@@ -8504,7 +8693,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="15" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>35</v>
       </c>
@@ -8518,7 +8707,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="15" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>35</v>
       </c>
@@ -8532,7 +8721,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="15" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>36</v>
       </c>
@@ -8546,7 +8735,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="15" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>36</v>
       </c>
@@ -8560,7 +8749,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="15" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>37</v>
       </c>
@@ -8574,7 +8763,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="15" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>37</v>
       </c>
@@ -8588,7 +8777,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="15" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>37</v>
       </c>
@@ -8602,7 +8791,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="15" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>38</v>
       </c>
@@ -8616,7 +8805,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="15" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>38</v>
       </c>
@@ -8630,7 +8819,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="15" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>39</v>
       </c>
@@ -8644,7 +8833,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="15" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>39</v>
       </c>
@@ -8658,7 +8847,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="15" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>39</v>
       </c>
@@ -8672,7 +8861,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="15" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>40</v>
       </c>
@@ -8686,7 +8875,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="15" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>40</v>
       </c>
@@ -8700,7 +8889,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="15" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>41</v>
       </c>
@@ -8714,7 +8903,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="15" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>41</v>
       </c>
@@ -8728,7 +8917,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="15" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>41</v>
       </c>
@@ -8742,7 +8931,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="15" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>41</v>
       </c>
@@ -8756,7 +8945,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="15" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>41</v>
       </c>
@@ -8770,7 +8959,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="15" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>42</v>
       </c>
@@ -8784,7 +8973,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="15" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>42</v>
       </c>
@@ -8798,7 +8987,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="15" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>43</v>
       </c>
@@ -8812,7 +9001,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="15" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>43</v>
       </c>
@@ -8826,7 +9015,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="15" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>43</v>
       </c>
@@ -8840,7 +9029,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="15" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>43</v>
       </c>
@@ -8854,7 +9043,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="15" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>44</v>
       </c>
@@ -8868,7 +9057,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="15" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>44</v>
       </c>
@@ -8882,7 +9071,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="15" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>45</v>
       </c>
@@ -8896,7 +9085,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="15" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>45</v>
       </c>
@@ -8910,7 +9099,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="15" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>46</v>
       </c>
@@ -8924,7 +9113,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="15" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>46</v>
       </c>
@@ -8938,7 +9127,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="15" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>47</v>
       </c>
@@ -8952,7 +9141,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="15" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>47</v>
       </c>
@@ -8966,7 +9155,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="15" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>47</v>
       </c>
@@ -8980,7 +9169,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="15" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>47</v>
       </c>
@@ -8994,7 +9183,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="15" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>47</v>
       </c>
@@ -9008,7 +9197,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="15" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>48</v>
       </c>
@@ -9022,7 +9211,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="15" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>48</v>
       </c>
@@ -9036,7 +9225,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="15" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>49</v>
       </c>
@@ -9050,7 +9239,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="15" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>49</v>
       </c>
@@ -9064,7 +9253,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="15" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>50</v>
       </c>
@@ -9078,7 +9267,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="15" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>50</v>
       </c>
@@ -9092,7 +9281,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="15" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>51</v>
       </c>
@@ -9106,7 +9295,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="15" customHeight="1">
       <c r="A123" s="3" t="s">
         <v>51</v>
       </c>
@@ -9120,7 +9309,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="15" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>51</v>
       </c>
@@ -9134,7 +9323,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="15" customHeight="1">
       <c r="A125" s="3" t="s">
         <v>51</v>
       </c>
@@ -9148,7 +9337,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="15" customHeight="1">
       <c r="A126" s="3" t="s">
         <v>51</v>
       </c>
@@ -9162,7 +9351,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="15" customHeight="1">
       <c r="A127" s="3" t="s">
         <v>51</v>
       </c>
@@ -9176,7 +9365,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="15" customHeight="1">
       <c r="A128" s="3" t="s">
         <v>52</v>
       </c>
@@ -9190,7 +9379,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="15" customHeight="1">
       <c r="A129" s="3" t="s">
         <v>52</v>
       </c>
@@ -9204,7 +9393,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="15" customHeight="1">
       <c r="A130" s="3" t="s">
         <v>52</v>
       </c>
@@ -9218,7 +9407,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="15" customHeight="1">
       <c r="A131" s="3" t="s">
         <v>52</v>
       </c>
@@ -9232,7 +9421,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="15" customHeight="1">
       <c r="A132" s="3" t="s">
         <v>52</v>
       </c>
@@ -9246,7 +9435,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="15" customHeight="1">
       <c r="A133" s="3" t="s">
         <v>53</v>
       </c>
@@ -9260,7 +9449,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="15" customHeight="1">
       <c r="A134" s="3" t="s">
         <v>53</v>
       </c>
@@ -9274,7 +9463,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="15" customHeight="1">
       <c r="A135" s="3" t="s">
         <v>54</v>
       </c>
@@ -9288,7 +9477,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="15" customHeight="1">
       <c r="A136" s="3" t="s">
         <v>54</v>
       </c>
@@ -9302,7 +9491,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="15" customHeight="1">
       <c r="A137" s="3" t="s">
         <v>54</v>
       </c>
@@ -9316,7 +9505,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="15" customHeight="1">
       <c r="A138" s="3" t="s">
         <v>55</v>
       </c>
@@ -9330,7 +9519,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="15" customHeight="1">
       <c r="A139" s="3" t="s">
         <v>55</v>
       </c>
@@ -9344,7 +9533,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="15" customHeight="1">
       <c r="A140" s="3" t="s">
         <v>55</v>
       </c>
@@ -9358,7 +9547,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="15" customHeight="1">
       <c r="A141" s="3" t="s">
         <v>55</v>
       </c>
@@ -9372,7 +9561,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="15" customHeight="1">
       <c r="A142" s="3" t="s">
         <v>56</v>
       </c>
@@ -9386,7 +9575,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="15" customHeight="1">
       <c r="A143" s="3" t="s">
         <v>56</v>
       </c>
@@ -9400,7 +9589,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="15" customHeight="1">
       <c r="A144" s="3" t="s">
         <v>56</v>
       </c>
@@ -9414,7 +9603,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="15" customHeight="1">
       <c r="A145" s="3" t="s">
         <v>57</v>
       </c>
@@ -9428,7 +9617,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="15" customHeight="1">
       <c r="A146" s="3" t="s">
         <v>57</v>
       </c>
@@ -9442,7 +9631,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="15" customHeight="1">
       <c r="A147" s="3" t="s">
         <v>57</v>
       </c>
@@ -9456,7 +9645,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="15" customHeight="1">
       <c r="A148" s="3" t="s">
         <v>58</v>
       </c>
@@ -9470,7 +9659,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="15" customHeight="1">
       <c r="A149" s="3" t="s">
         <v>58</v>
       </c>
@@ -9484,7 +9673,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="15" customHeight="1">
       <c r="A150" s="3" t="s">
         <v>58</v>
       </c>
@@ -9498,7 +9687,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="15" customHeight="1">
       <c r="A151" s="3" t="s">
         <v>59</v>
       </c>
@@ -9512,7 +9701,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="15" customHeight="1">
       <c r="A152" s="3" t="s">
         <v>59</v>
       </c>
@@ -9526,7 +9715,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="15" customHeight="1">
       <c r="A153" s="3" t="s">
         <v>59</v>
       </c>
@@ -9540,7 +9729,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="15" customHeight="1">
       <c r="A154" s="3" t="s">
         <v>59</v>
       </c>
@@ -9554,7 +9743,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="15" customHeight="1">
       <c r="A155" s="3" t="s">
         <v>63</v>
       </c>
@@ -9568,7 +9757,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="15" customHeight="1">
       <c r="A156" s="3" t="s">
         <v>63</v>
       </c>
@@ -9582,7 +9771,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="15" customHeight="1">
       <c r="A157" s="3" t="s">
         <v>65</v>
       </c>
@@ -9596,7 +9785,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="15" customHeight="1">
       <c r="A158" s="3" t="s">
         <v>65</v>
       </c>
@@ -9610,7 +9799,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="15" customHeight="1">
       <c r="A159" s="3" t="s">
         <v>65</v>
       </c>
@@ -9624,7 +9813,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="15" customHeight="1">
       <c r="A160" s="3" t="s">
         <v>65</v>
       </c>
@@ -9638,7 +9827,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="15" customHeight="1">
       <c r="A161" s="3" t="s">
         <v>67</v>
       </c>
@@ -9652,7 +9841,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="15" customHeight="1">
       <c r="A162" s="3" t="s">
         <v>67</v>
       </c>
@@ -9666,7 +9855,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="15" customHeight="1">
       <c r="A163" s="3" t="s">
         <v>67</v>
       </c>
@@ -9680,7 +9869,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="15" customHeight="1">
       <c r="A164" s="3" t="s">
         <v>68</v>
       </c>
@@ -9694,7 +9883,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="15" customHeight="1">
       <c r="A165" s="3" t="s">
         <v>68</v>
       </c>
@@ -9708,7 +9897,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="15" customHeight="1">
       <c r="A166" s="3" t="s">
         <v>68</v>
       </c>
@@ -9722,7 +9911,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="15" customHeight="1">
       <c r="A167" s="3" t="s">
         <v>68</v>
       </c>
@@ -9736,7 +9925,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="15" customHeight="1">
       <c r="A168" s="3" t="s">
         <v>70</v>
       </c>
@@ -9750,7 +9939,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="15" customHeight="1">
       <c r="A169" s="3" t="s">
         <v>70</v>
       </c>
@@ -9764,7 +9953,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="15" customHeight="1">
       <c r="A170" s="3" t="s">
         <v>70</v>
       </c>
@@ -9778,7 +9967,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="15" customHeight="1">
       <c r="A171" s="3" t="s">
         <v>71</v>
       </c>
@@ -9792,7 +9981,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="15" customHeight="1">
       <c r="A172" s="3" t="s">
         <v>71</v>
       </c>
@@ -9806,7 +9995,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="15" customHeight="1">
       <c r="A173" s="3" t="s">
         <v>71</v>
       </c>
@@ -9820,7 +10009,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="15" customHeight="1">
       <c r="A174" s="3" t="s">
         <v>71</v>
       </c>
@@ -9834,7 +10023,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="15" customHeight="1">
       <c r="A175" s="3" t="s">
         <v>72</v>
       </c>
@@ -9848,7 +10037,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="15" customHeight="1">
       <c r="A176" s="3" t="s">
         <v>72</v>
       </c>
@@ -9862,7 +10051,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="15" customHeight="1">
       <c r="A177" s="3" t="s">
         <v>72</v>
       </c>
@@ -9876,7 +10065,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="15" customHeight="1">
       <c r="A178" s="3" t="s">
         <v>72</v>
       </c>
@@ -9890,7 +10079,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="15" customHeight="1">
       <c r="A179" s="3" t="s">
         <v>73</v>
       </c>
@@ -9904,7 +10093,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="15" customHeight="1">
       <c r="A180" s="3" t="s">
         <v>73</v>
       </c>
@@ -9918,7 +10107,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="15" customHeight="1">
       <c r="A181" s="3" t="s">
         <v>74</v>
       </c>
@@ -9932,7 +10121,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="15" customHeight="1">
       <c r="A182" s="3" t="s">
         <v>74</v>
       </c>
@@ -9946,7 +10135,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="15" customHeight="1">
       <c r="A183" s="3" t="s">
         <v>75</v>
       </c>
@@ -9960,7 +10149,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="15" customHeight="1">
       <c r="A184" s="3" t="s">
         <v>75</v>
       </c>
@@ -9974,7 +10163,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="15" customHeight="1">
       <c r="A185" s="3" t="s">
         <v>76</v>
       </c>
@@ -9988,7 +10177,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="15" customHeight="1">
       <c r="A186" s="3" t="s">
         <v>76</v>
       </c>
@@ -10002,7 +10191,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="15" customHeight="1">
       <c r="A187" s="3" t="s">
         <v>76</v>
       </c>
@@ -10016,7 +10205,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="15" customHeight="1">
       <c r="A188" s="3" t="s">
         <v>77</v>
       </c>
@@ -10030,7 +10219,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="15" customHeight="1">
       <c r="A189" s="3" t="s">
         <v>77</v>
       </c>
@@ -10044,7 +10233,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="15" customHeight="1">
       <c r="A190" s="3" t="s">
         <v>77</v>
       </c>
@@ -10058,7 +10247,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="15" customHeight="1">
       <c r="A191" s="3" t="s">
         <v>77</v>
       </c>
@@ -10072,7 +10261,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="15" customHeight="1">
       <c r="A192" s="3" t="s">
         <v>81</v>
       </c>
@@ -10086,7 +10275,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="15" customHeight="1">
       <c r="A193" s="3" t="s">
         <v>81</v>
       </c>
@@ -10100,7 +10289,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="15" customHeight="1">
       <c r="A194" s="3" t="s">
         <v>82</v>
       </c>
@@ -10114,7 +10303,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="15" customHeight="1">
       <c r="A195" s="3" t="s">
         <v>82</v>
       </c>
@@ -10128,7 +10317,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="15" customHeight="1">
       <c r="A196" s="3" t="s">
         <v>83</v>
       </c>
@@ -10142,7 +10331,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="15" customHeight="1">
       <c r="A197" s="3" t="s">
         <v>83</v>
       </c>
@@ -10156,7 +10345,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="15" customHeight="1">
       <c r="A198" s="3" t="s">
         <v>83</v>
       </c>
@@ -10170,7 +10359,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="15" customHeight="1">
       <c r="A199" s="3" t="s">
         <v>91</v>
       </c>
@@ -10184,7 +10373,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="15" customHeight="1">
       <c r="A200" s="3" t="s">
         <v>91</v>
       </c>
@@ -10198,7 +10387,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="15" customHeight="1">
       <c r="A201" s="3" t="s">
         <v>91</v>
       </c>
@@ -10212,7 +10401,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="15" customHeight="1">
       <c r="A202" s="3" t="s">
         <v>93</v>
       </c>
@@ -10226,7 +10415,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="15" customHeight="1">
       <c r="A203" s="3" t="s">
         <v>93</v>
       </c>
@@ -10240,7 +10429,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="15" customHeight="1">
       <c r="A204" s="3" t="s">
         <v>94</v>
       </c>
@@ -10254,7 +10443,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="15" customHeight="1">
       <c r="A205" s="3" t="s">
         <v>94</v>
       </c>
@@ -10268,7 +10457,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="15" customHeight="1">
       <c r="A206" s="3" t="s">
         <v>95</v>
       </c>
@@ -10282,7 +10471,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="15" customHeight="1">
       <c r="A207" s="3" t="s">
         <v>95</v>
       </c>
@@ -10296,7 +10485,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="15" customHeight="1">
       <c r="A208" s="3" t="s">
         <v>96</v>
       </c>
@@ -10310,7 +10499,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="15" customHeight="1">
       <c r="A209" s="3" t="s">
         <v>96</v>
       </c>
@@ -10324,7 +10513,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="15" customHeight="1">
       <c r="A210" s="3" t="s">
         <v>96</v>
       </c>
@@ -10338,7 +10527,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="15" customHeight="1">
       <c r="A211" s="3" t="s">
         <v>96</v>
       </c>
@@ -10352,7 +10541,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="15" customHeight="1">
       <c r="A212" s="3" t="s">
         <v>96</v>
       </c>
@@ -10366,7 +10555,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="15" customHeight="1">
       <c r="A213" s="3" t="s">
         <v>97</v>
       </c>
@@ -10380,7 +10569,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="15" customHeight="1">
       <c r="A214" s="3" t="s">
         <v>97</v>
       </c>
@@ -10394,7 +10583,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="15" customHeight="1">
       <c r="A215" s="3" t="s">
         <v>101</v>
       </c>
@@ -10408,7 +10597,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="15" customHeight="1">
       <c r="A216" s="3" t="s">
         <v>101</v>
       </c>
@@ -10422,7 +10611,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="15" customHeight="1">
       <c r="A217" s="3" t="s">
         <v>115</v>
       </c>
@@ -10436,7 +10625,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="15" customHeight="1">
       <c r="A218" s="3" t="s">
         <v>115</v>
       </c>
@@ -10450,7 +10639,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="15" customHeight="1">
       <c r="A219" s="3" t="s">
         <v>115</v>
       </c>
@@ -10464,7 +10653,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="15" customHeight="1">
       <c r="A220" s="3" t="s">
         <v>115</v>
       </c>
@@ -10478,7 +10667,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="15" customHeight="1">
       <c r="A221" s="3" t="s">
         <v>115</v>
       </c>
@@ -10492,7 +10681,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="15" customHeight="1">
       <c r="A222" s="3" t="s">
         <v>116</v>
       </c>
@@ -10506,7 +10695,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="15" customHeight="1">
       <c r="A223" s="3" t="s">
         <v>116</v>
       </c>
@@ -10520,7 +10709,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="15" customHeight="1">
       <c r="A224" s="3" t="s">
         <v>116</v>
       </c>
@@ -10534,7 +10723,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="15" customHeight="1">
       <c r="A225" s="3" t="s">
         <v>116</v>
       </c>
@@ -10548,7 +10737,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="15" customHeight="1">
       <c r="A226" s="3" t="s">
         <v>116</v>
       </c>
@@ -10562,7 +10751,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="15" customHeight="1">
       <c r="A227" s="3" t="s">
         <v>117</v>
       </c>
@@ -10576,7 +10765,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="15" customHeight="1">
       <c r="A228" s="3" t="s">
         <v>117</v>
       </c>
@@ -10590,7 +10779,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" ht="15" customHeight="1">
       <c r="A229" s="3" t="s">
         <v>117</v>
       </c>
@@ -10604,7 +10793,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="15" customHeight="1">
       <c r="A230" s="3" t="s">
         <v>117</v>
       </c>
@@ -10618,7 +10807,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="15" customHeight="1">
       <c r="A231" s="3" t="s">
         <v>117</v>
       </c>
@@ -10632,7 +10821,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="15" customHeight="1">
       <c r="A232" s="3" t="s">
         <v>117</v>
       </c>
@@ -10646,7 +10835,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="15" customHeight="1">
       <c r="A233" s="3" t="s">
         <v>117</v>
       </c>
@@ -10660,7 +10849,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" ht="15" customHeight="1">
       <c r="A234" s="3" t="s">
         <v>117</v>
       </c>
@@ -10674,7 +10863,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="15" customHeight="1">
       <c r="A235" s="3" t="s">
         <v>117</v>
       </c>
@@ -10688,7 +10877,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="15" customHeight="1">
       <c r="A236" s="3" t="s">
         <v>117</v>
       </c>
@@ -10702,7 +10891,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="15" customHeight="1">
       <c r="A237" s="3" t="s">
         <v>118</v>
       </c>
@@ -10716,7 +10905,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="15" customHeight="1">
       <c r="A238" s="3" t="s">
         <v>118</v>
       </c>
@@ -10730,7 +10919,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="15" customHeight="1">
       <c r="A239" s="3" t="s">
         <v>118</v>
       </c>
@@ -10744,7 +10933,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="15" customHeight="1">
       <c r="A240" s="3" t="s">
         <v>118</v>
       </c>
@@ -10758,7 +10947,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="15" customHeight="1">
       <c r="A241" s="3" t="s">
         <v>118</v>
       </c>
@@ -10772,7 +10961,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" ht="15" customHeight="1">
       <c r="A242" s="3" t="s">
         <v>118</v>
       </c>
@@ -10786,7 +10975,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="15" customHeight="1">
       <c r="A243" s="3" t="s">
         <v>118</v>
       </c>
@@ -10800,7 +10989,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="15" customHeight="1">
       <c r="A244" s="3" t="s">
         <v>118</v>
       </c>
@@ -10814,7 +11003,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="15" customHeight="1">
       <c r="A245" s="3" t="s">
         <v>118</v>
       </c>
@@ -10828,7 +11017,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="15" customHeight="1">
       <c r="A246" s="3" t="s">
         <v>118</v>
       </c>
@@ -10842,7 +11031,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="15" customHeight="1">
       <c r="A247" s="3" t="s">
         <v>121</v>
       </c>
@@ -10856,7 +11045,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="15" customHeight="1">
       <c r="A248" s="3" t="s">
         <v>121</v>
       </c>
@@ -10870,7 +11059,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="15" customHeight="1">
       <c r="A249" s="3" t="s">
         <v>121</v>
       </c>
@@ -10884,7 +11073,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="15" customHeight="1">
       <c r="A250" s="3" t="s">
         <v>121</v>
       </c>
@@ -10898,7 +11087,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" ht="15" customHeight="1">
       <c r="A251" s="3" t="s">
         <v>121</v>
       </c>
@@ -10912,7 +11101,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="15" customHeight="1">
       <c r="A252" s="3" t="s">
         <v>121</v>
       </c>
@@ -10926,7 +11115,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" ht="15" customHeight="1">
       <c r="A253" s="3" t="s">
         <v>121</v>
       </c>
@@ -10940,7 +11129,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" ht="15" customHeight="1">
       <c r="A254" s="3" t="s">
         <v>121</v>
       </c>
@@ -10954,7 +11143,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" ht="15" customHeight="1">
       <c r="A255" s="3" t="s">
         <v>121</v>
       </c>
@@ -10968,7 +11157,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="15" customHeight="1">
       <c r="A256" s="3" t="s">
         <v>121</v>
       </c>
@@ -10982,7 +11171,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="15" customHeight="1">
       <c r="A257" s="3" t="s">
         <v>121</v>
       </c>
@@ -10996,7 +11185,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="15" customHeight="1">
       <c r="A258" s="3" t="s">
         <v>121</v>
       </c>
@@ -11010,7 +11199,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="15" customHeight="1">
       <c r="A259" s="3" t="s">
         <v>121</v>
       </c>
@@ -11024,7 +11213,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="15" customHeight="1">
       <c r="A260" s="3" t="s">
         <v>121</v>
       </c>
@@ -11038,7 +11227,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="15" customHeight="1">
       <c r="A261" s="3" t="s">
         <v>121</v>
       </c>
@@ -11052,7 +11241,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" ht="15" customHeight="1">
       <c r="A262" s="3" t="s">
         <v>121</v>
       </c>
@@ -11066,7 +11255,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" ht="15" customHeight="1">
       <c r="A263" s="3" t="s">
         <v>175</v>
       </c>
@@ -11080,7 +11269,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="15" customHeight="1">
       <c r="A264" s="3" t="s">
         <v>175</v>
       </c>
@@ -11094,7 +11283,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="15" customHeight="1">
       <c r="A265" s="3" t="s">
         <v>176</v>
       </c>
@@ -11108,7 +11297,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" ht="15" customHeight="1">
       <c r="A266" s="3" t="s">
         <v>176</v>
       </c>
@@ -11122,7 +11311,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="15" customHeight="1">
       <c r="A267" s="3" t="s">
         <v>183</v>
       </c>
@@ -11136,7 +11325,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" ht="15" customHeight="1">
       <c r="A268" s="3" t="s">
         <v>183</v>
       </c>
@@ -11150,7 +11339,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="15" customHeight="1">
       <c r="A269" s="3" t="s">
         <v>183</v>
       </c>
@@ -11164,7 +11353,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="15" customHeight="1">
       <c r="A270" s="3" t="s">
         <v>183</v>
       </c>
@@ -11178,7 +11367,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="15" customHeight="1">
       <c r="A271" s="3" t="s">
         <v>183</v>
       </c>
@@ -11192,7 +11381,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="15" customHeight="1">
       <c r="A272" s="3" t="s">
         <v>183</v>
       </c>
@@ -11206,7 +11395,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" ht="15" customHeight="1">
       <c r="A273" s="3" t="s">
         <v>182</v>
       </c>
@@ -11220,7 +11409,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="15" customHeight="1">
       <c r="A274" s="3" t="s">
         <v>182</v>
       </c>
@@ -11234,7 +11423,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="15" customHeight="1">
       <c r="A275" s="3" t="s">
         <v>182</v>
       </c>
@@ -11248,7 +11437,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="15" customHeight="1">
       <c r="A276" s="3" t="s">
         <v>182</v>
       </c>
@@ -11262,7 +11451,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" ht="15" customHeight="1">
       <c r="A277" s="3" t="s">
         <v>182</v>
       </c>
@@ -11276,7 +11465,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="15" customHeight="1">
       <c r="A278" s="3" t="s">
         <v>182</v>
       </c>
@@ -11290,7 +11479,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="15" customHeight="1">
       <c r="A279" s="3" t="s">
         <v>185</v>
       </c>
@@ -11304,7 +11493,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="15" customHeight="1">
       <c r="A280" s="3" t="s">
         <v>185</v>
       </c>
@@ -11318,7 +11507,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" ht="15" customHeight="1">
       <c r="A281" s="3" t="s">
         <v>185</v>
       </c>
@@ -11332,7 +11521,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="15" customHeight="1">
       <c r="A282" s="3" t="s">
         <v>186</v>
       </c>
@@ -11346,7 +11535,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="15" customHeight="1">
       <c r="A283" s="3" t="s">
         <v>186</v>
       </c>
@@ -11360,7 +11549,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" ht="15" customHeight="1">
       <c r="A284" s="3" t="s">
         <v>186</v>
       </c>
@@ -11374,7 +11563,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="15" customHeight="1">
       <c r="A285" s="3" t="s">
         <v>186</v>
       </c>
@@ -11388,7 +11577,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="15" customHeight="1">
       <c r="A286" s="3" t="s">
         <v>186</v>
       </c>
@@ -11402,7 +11591,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" ht="15" customHeight="1">
       <c r="A287" s="3" t="s">
         <v>221</v>
       </c>
@@ -11416,7 +11605,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="15" customHeight="1">
       <c r="A288" s="3" t="s">
         <v>221</v>
       </c>
@@ -11430,7 +11619,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" ht="15" customHeight="1">
       <c r="A289" s="3" t="s">
         <v>221</v>
       </c>
@@ -11444,7 +11633,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="15" customHeight="1">
       <c r="A290" s="3" t="s">
         <v>241</v>
       </c>
@@ -11458,7 +11647,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="15" customHeight="1">
       <c r="A291" s="3" t="s">
         <v>241</v>
       </c>
@@ -11472,7 +11661,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="15" customHeight="1">
       <c r="A292" s="3" t="s">
         <v>241</v>
       </c>
@@ -11486,7 +11675,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="15" customHeight="1">
       <c r="A293" s="3" t="s">
         <v>261</v>
       </c>
@@ -11500,7 +11689,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="15" customHeight="1">
       <c r="A294" s="3" t="s">
         <v>261</v>
       </c>
@@ -11514,7 +11703,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="15" customHeight="1">
       <c r="A295" s="3" t="s">
         <v>261</v>
       </c>
@@ -11528,7 +11717,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="15" customHeight="1">
       <c r="A296" s="3" t="s">
         <v>310</v>
       </c>
@@ -11542,7 +11731,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="15" customHeight="1">
       <c r="A297" s="3" t="s">
         <v>310</v>
       </c>
@@ -11556,7 +11745,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="15" customHeight="1">
       <c r="A298" s="3" t="s">
         <v>311</v>
       </c>
@@ -11570,7 +11759,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="15" customHeight="1">
       <c r="A299" s="3" t="s">
         <v>311</v>
       </c>
@@ -11584,7 +11773,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" ht="15" customHeight="1">
       <c r="A300" s="3" t="s">
         <v>312</v>
       </c>
@@ -11598,7 +11787,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" ht="15" customHeight="1">
       <c r="A301" s="3" t="s">
         <v>312</v>
       </c>
@@ -11612,7 +11801,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="15" customHeight="1">
       <c r="A302" s="5" t="s">
         <v>825</v>
       </c>
@@ -11626,7 +11815,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" ht="15" customHeight="1">
       <c r="A303" s="5" t="s">
         <v>825</v>
       </c>
@@ -11640,7 +11829,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" ht="15" customHeight="1">
       <c r="A304" s="5" t="s">
         <v>826</v>
       </c>
@@ -11654,7 +11843,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="15" customHeight="1">
       <c r="A305" s="5" t="s">
         <v>826</v>
       </c>
@@ -11665,6 +11854,230 @@
         <v>0</v>
       </c>
       <c r="D305" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="15" customHeight="1">
+      <c r="A306" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="B306" s="5">
+        <v>0</v>
+      </c>
+      <c r="C306" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="15" customHeight="1">
+      <c r="A307" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="B307" s="5">
+        <v>1</v>
+      </c>
+      <c r="C307" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="15" customHeight="1">
+      <c r="A308" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="B308" s="5">
+        <v>0</v>
+      </c>
+      <c r="C308" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="15" customHeight="1">
+      <c r="A309" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="B309" s="5">
+        <v>1</v>
+      </c>
+      <c r="C309" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="15" customHeight="1">
+      <c r="A310" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B310" s="5">
+        <v>0</v>
+      </c>
+      <c r="C310" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="15" customHeight="1">
+      <c r="A311" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B311" s="5">
+        <v>1</v>
+      </c>
+      <c r="C311" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="15" customHeight="1">
+      <c r="A312" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B312" s="5">
+        <v>0</v>
+      </c>
+      <c r="C312" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="15" customHeight="1">
+      <c r="A313" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B313" s="5">
+        <v>1</v>
+      </c>
+      <c r="C313" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="15" customHeight="1">
+      <c r="A314" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B314" s="5">
+        <v>0</v>
+      </c>
+      <c r="C314" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="15" customHeight="1">
+      <c r="A315" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B315" s="5">
+        <v>1</v>
+      </c>
+      <c r="C315" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="15" customHeight="1">
+      <c r="A316" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B316" s="5">
+        <v>0</v>
+      </c>
+      <c r="C316" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="15" customHeight="1">
+      <c r="A317" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B317" s="5">
+        <v>1</v>
+      </c>
+      <c r="C317" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="15" customHeight="1">
+      <c r="A318" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="B318" s="5">
+        <v>0</v>
+      </c>
+      <c r="C318" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="15" customHeight="1">
+      <c r="A319" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="B319" s="5">
+        <v>1</v>
+      </c>
+      <c r="C319" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="15" customHeight="1">
+      <c r="A320" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="B320" s="5">
+        <v>0</v>
+      </c>
+      <c r="C320" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="15" customHeight="1">
+      <c r="A321" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="B321" s="5">
+        <v>1</v>
+      </c>
+      <c r="C321" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D321" s="3" t="s">
         <v>696</v>
       </c>
     </row>
